--- a/data/ENVE.xlsx
+++ b/data/ENVE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH 241, PHYS 132, and ME 211.</t>
+          <t>MATH 241, PHYS 132, and ME 211.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -459,7 +519,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WCorequisite: CHEM 125 or CHEM 129; ENVE 331.</t>
+          <t>CHEM 125 or CHEM 129; ENVE 331.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -476,12 +551,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATH 241 and PHYS 132. Corequisite: ENGL 149.</t>
+          <t>MATH 241 and PHYS 132.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>ENGL 149.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 128.</t>
+          <t>CHEM 125 or CHEM 128.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 128, MATH 242 or MATH 244 (or concurrent).</t>
+          <t>CHEM 125 or CHEM 128, MATH 242 or MATH 244 (or concurrent).</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Junior standing and consent of instructor. Recommended: Prior or concurrent enrollment in ENVE 434 and ENVE 438.</t>
+          <t>Junior standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prior or concurrent enrollment in ENVE 434 and ENVE 438.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>consent of instructor. Recommended: ENVE 331.</t>
+          <t>consent of instructor.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ENVE 331.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CE 251 or CSC 231; ENVE 304 or ME 302; ENVE 264 or ME 341; ENVE 325; and ENVE 331.</t>
+          <t>CE 251 or CSC 231; ENVE 304 or ME 302; ENVE 264 or ME 341; ENVE 325; and ENVE 331.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ENVE 325, ENVE 331, ENVE 304 or ME 302, ENVE 264 or ME 341.</t>
+          <t>ENVE 325, ENVE 331, ENVE 304 or ME 302, ENVE 264 or ME 341.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ENVE 325, CHEM 212/312, ENVE 264 or ME 341, STAT 312, and ENGL 149.</t>
+          <t>ENVE 325, CHEM 212/312, ENVE 264 or ME 341, STAT 312, and ENGL 149.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 129, ENVE 330 or ENVE 331.</t>
+          <t>CHEM 125 or CHEM 129, ENVE 330 or ENVE 331.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ENVE 325 and ENVE 331.</t>
+          <t>ENVE 325 and ENVE 331.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ENVE 331 and ME 341 or ENVE 264.</t>
+          <t>ENVE 331 and ME 341 or ENVE 264.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ENVE 325 and ENVE 331; or graduate standing.</t>
+          <t>ENVE 325 and ENVE 331; or graduate standing.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ENVE 331.</t>
+          <t>ENVE 331.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ENVE 331.</t>
+          <t>ENVE 331.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ENVE 331.</t>
+          <t>ENVE 331.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -872,12 +1217,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ENVE 438, CE 336 and senior standing. Corequisite: CE 465.</t>
+          <t>ENVE 438, CE 336 and senior standing.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>CE 465.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ENVE 466.</t>
+          <t>ENVE 466.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -960,12 +1365,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ENVE 304 or ME 302; ENVE 331. Recommended: ENVE 325.</t>
+          <t>ENVE 304 or ME 302; ENVE 331.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ENVE 325.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ENVE 331 or MATE 370; and CHEM 125. Recommended: ENVE 421.</t>
+          <t>ENVE 331 or MATE 370; and CHEM 125.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ENVE 421.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1048,12 +1513,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ENVE 264 or ME 341; senior or graduate standing. Recommended: ENVE 325.</t>
+          <t>ENVE 264 or ME 341; senior or graduate standing.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ENVE 325.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1097,6 +1592,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ENVE 438 or Graduate standing.</t>
+          <t>ENVE 438 or Graduate standing.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1141,6 +1666,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1185,6 +1740,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CHEM 312 and MCRO 221.</t>
+          <t>CHEM 312 and MCRO 221.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1228,6 +1813,21 @@
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
